--- a/data/timing_data.xlsx
+++ b/data/timing_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/eh1618_ic_ac_uk/Documents/Work/Fourth Year/Project/Research/crypto_arbitrage_bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_16E679DA84E0D4EB0A177F797604708B3E428E4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F29DF04-342C-46D7-92E8-F133C1C8A406}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_16E679DA84E0D4EB0A177F797604708B3E428E4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{852B9A1D-4BF0-4AB2-9AB5-E008809F4C76}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,8 +44,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="286">
   <si>
     <t>route</t>
   </si>
@@ -901,6 +923,9 @@
   <si>
     <t>ETHUSDT -&gt; GALAETH -&gt; GALAUSDTBUY -&gt; BUY -&gt; SELL</t>
   </si>
+  <si>
+    <t>mean</t>
+  </si>
 </sst>
 </file>
 
@@ -17635,10 +17660,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17646,7 +17671,7 @@
     <col min="1" max="1" width="51.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17660,7 +17685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -17674,7 +17699,7 @@
         <v>11029</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -17688,7 +17713,7 @@
         <v>9859</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -17701,8 +17726,15 @@
       <c r="D4">
         <v>11185</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>MAX(B2:B171)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -17715,8 +17747,15 @@
       <c r="D5">
         <v>7317</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">SUM(C2:C171*D2:D171)/SUM(D2:D171)</f>
+        <v>1.0060093159291557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -17730,7 +17769,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -17744,7 +17783,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -17758,7 +17797,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -17772,7 +17811,7 @@
         <v>9520</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -17786,7 +17825,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -17800,7 +17839,7 @@
         <v>12310</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -17814,7 +17853,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -17828,7 +17867,7 @@
         <v>7624</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -17842,7 +17881,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -17856,7 +17895,7 @@
         <v>10547</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
